--- a/jpcore-r4/feature/swg3-practionerRole対応/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/feature/swg3-practionerRole対応/StructureDefinition-jp-procedure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3441" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3297" uniqueCount="473">
   <si>
     <t>Property</t>
   </si>
@@ -497,7 +497,7 @@
     <t>Instantiates FHIR protocol or definition</t>
   </si>
   <si>
-    <t>本Procedureの全部または一部を遵守するFHIR定義のプロトコル、ガイドライン、オーダーセット、その他の定義を指すURL.</t>
+    <t>本Procedureの全部または一部を遵守するFHIR定義のプロトコル、ガイドライン、オーダーセット、その他の定義を指すURL。</t>
   </si>
   <si>
     <t>Event.instantiatesCanonical</t>
@@ -532,7 +532,7 @@
 </t>
   </si>
   <si>
-    <t>A request for this procedure　このプロシージャの依頼情報</t>
+    <t>A request for this procedure このプロシージャの依頼情報</t>
   </si>
   <si>
     <t>このプロシージャの依頼情報の詳細を含むリソースへの参照。</t>
@@ -651,17 +651,10 @@
     <t>Classification of the procedure</t>
   </si>
   <si>
-    <t>検索、ソート、表示のためにProcedureを分類したコード（例：「外科的Procedure」）。</t>
-  </si>
-  <si>
-    <t>すべての用語の使用がこの一般的なパターンに当てはまるわけではない。場合によっては、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係や事前・事後の調整を管理するための独自の構造を提供する必要がある。 
-【JPーCORE】JP_Conditionに合わせて必須。</t>
-  </si>
-  <si>
-    <t>A code that classifies a procedure for searching, sorting and display purposes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-category</t>
+    <t>A code that classifies the procedure for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ProcedureCategoryCodes_VS</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -670,7 +663,41 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>Procedure.category.id</t>
+    <t>Procedure.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type
+</t>
+  </si>
+  <si>
+    <t>Identification of the procedure プロシジャーの識別子</t>
+  </si>
+  <si>
+    <t>行われた具体的な手順。手技の正確な性質がコード化できない場合はテキストを使用する（例：「腹腔鏡下虫垂切除術」）</t>
+  </si>
+  <si>
+    <t>すべての用語の使用がこの一般的なパターンに当てはまるわけではない。場合によっては、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係や事前・事後の調整を管理するための独自の構造を提供すべきである。</t>
+  </si>
+  <si>
+    <t>0..1 to account for primarily narrative only resources.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCodesMedical_VS</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>OBR-44/OBR-45</t>
+  </si>
+  <si>
+    <t>Procedure.code.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -685,7 +712,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Procedure.category.extension</t>
+    <t>Procedure.code.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -704,120 +731,38 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Procedure.category.coding</t>
+    <t>Procedure.code.coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
-    <t>Code defined by a terminology system　ターミノロジーによって定義されたコード</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.
-ターミノロジーによって定義されたコードへの参照。</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.
-コードは、列挙型またはコードリストで、SNOMED CTなどの非常に正式な定義まで、非常に柔軟に定義できる。詳細については、HL7v3コア原則を参照。コーディングの順序は定義されておらず、意味を推測するために使用してはならない。
-一般に、コーディング値の多くても1つだけが　UserSelected = true　としてラベル付けされる。</t>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>Procedure.category.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept　この概念のシンプルなテキスト記述</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.
-データを入力したユーザーによって見られた/選択された/発声された、および/またはユーザーの意図された意味を表す概念の人間の言語表現。</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.
-多くの場合、テキストはいずれかのコーディングのdisplayNameと同じである。</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.
-用語のコードは、それらを使用する人間のすべてのニュアンスで常に正しい意味を捉えているとは限らない。または、適切なコードがまったくない場合もある。このような場合、テキストはソースの完全な意味をキャプチャするために使用される。</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>Procedure.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type
-</t>
-  </si>
-  <si>
-    <t>Identification of the procedure　プロシジャーの識別子</t>
-  </si>
-  <si>
-    <t>行われた具体的な手順。手技の正確な性質がコード化できない場合はテキストを使用する（例：「腹腔鏡下虫垂切除術」）</t>
-  </si>
-  <si>
-    <t>すべての用語の使用がこの一般的なパターンに当てはまるわけではない。場合によっては、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係や事前・事後の調整を管理するための独自の構造を提供すべきである。</t>
-  </si>
-  <si>
-    <t>0..1 to account for primarily narrative only resources.</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCodesMedical_VS</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>OBR-44/OBR-45</t>
-  </si>
-  <si>
-    <t>Procedure.code.id</t>
-  </si>
-  <si>
-    <t>Procedure.code.extension</t>
-  </si>
-  <si>
-    <t>Procedure.code.coding</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
   </si>
   <si>
     <t xml:space="preserve">value:system}
 </t>
   </si>
   <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
     <t>medical</t>
   </si>
   <si>
@@ -996,6 +941,15 @@
     <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
     <t>Procedure.subject</t>
   </si>
   <si>
@@ -1007,7 +961,7 @@
 </t>
   </si>
   <si>
-    <t>Who the procedure was performed on　プロシジャーが実施された対象人</t>
+    <t>Who the procedure was performed on プロシジャーが実施された対象人</t>
   </si>
   <si>
     <t>The person, animal or group on which the procedure was performed.
@@ -1036,7 +990,7 @@
 </t>
   </si>
   <si>
-    <t>Encounter created as part of　一部として作成されたエンカウンター</t>
+    <t>Encounter created as part of 一部として作成されたエンカウンター</t>
   </si>
   <si>
     <t>プロシジャーが作成または実行されたエンカウンター、またはこの記録の作成が緊密に関連しているエンカウンター。</t>
@@ -1064,7 +1018,7 @@
 PeriodstringAgeRange</t>
   </si>
   <si>
-    <t>When the procedure was performed　プロシジャーが実施された時期</t>
+    <t>When the procedure was performed プロシジャーが実施された時期</t>
   </si>
   <si>
     <t>Procedureが行われた推定または実際の日付、日時、期間、または年齢。複数の日付にまたがる複雑なProcdedureをサポートするために期間を許可し、Procdedureの長さを把握することも可能。</t>
@@ -1095,7 +1049,7 @@
 </t>
   </si>
   <si>
-    <t>Who recorded the procedure　プロシジャーを記録した人</t>
+    <t>Who recorded the procedure プロシジャーを記録した人</t>
   </si>
   <si>
     <t>Individual who recorded the record and takes responsibility for its content.
@@ -1115,7 +1069,7 @@
     <t>Procedure.asserter</t>
   </si>
   <si>
-    <t>Person who asserts this procedure　プロシジャーを実施したと報告する人</t>
+    <t>Person who asserts this procedure プロシジャーを実施したと報告する人</t>
   </si>
   <si>
     <t>Individual who is making the procedure statement.
@@ -1135,7 +1089,7 @@
 </t>
   </si>
   <si>
-    <t>The people who performed the procedure　プロシジャーを実施した人々</t>
+    <t>The people who performed the procedure プロシジャーを実施した人々</t>
   </si>
   <si>
     <t>Limited to "real" people rather than equipment.
@@ -1208,7 +1162,7 @@
 </t>
   </si>
   <si>
-    <t>The reference to the practitioner　医療従事者への参照</t>
+    <t>The reference to the practitioner 医療従事者への参照</t>
   </si>
   <si>
     <t>The practitioner who was involved in the procedure.
@@ -1240,7 +1194,7 @@
 </t>
   </si>
   <si>
-    <t>Organization the device or practitioner was acting for　従事した組織</t>
+    <t>Organization the device or practitioner was acting for 従事した組織</t>
   </si>
   <si>
     <t>The organization the device or practitioner was acting on behalf of.
@@ -1263,11 +1217,11 @@
 </t>
   </si>
   <si>
-    <t>Where the procedure happened　　プロシジャーが実施された場所</t>
+    <t>Where the procedure happened  プロシジャーが実施された場所</t>
   </si>
   <si>
     <t>プロシジャーが実施された場所。
-例：自宅での出生、レストランで気管切開など。</t>
+例:自宅での出生、レストランで気管切開など。</t>
   </si>
   <si>
     <t>Ties a procedure to where the records are likely kept.</t>
@@ -1282,7 +1236,7 @@
     <t>Procedure.reasonCode</t>
   </si>
   <si>
-    <t>Coded reason procedure performed　プロシジャーが実施された理由コード</t>
+    <t>Coded reason procedure performed プロシジャーが実施された理由コード</t>
   </si>
   <si>
     <t>処置が行われたコード化された理由。
@@ -1293,7 +1247,7 @@
 ひとつのコードが理由を十分に説明している場合は、Procedure.reasonCodeを使用する。
 リソースを参照する場合は、Procedure.reasonReferenceを使用する。これにより、開始日など、より多くの情報を伝達できる。
 Procedure.reasonCodeとProcedure.reasonReferenceは、重複することを意図したものではない。単一の理由で、Procedure.reasonCodeまたはProcedure.reasonReferenceのいずれかだけを使用できる。
- Procedure.reasonCodeは要約コードの場合もあれば、Procedure.reasonReferenceを使用して、Condition | Observation | Procedure | DiagnosticReport | DocumentReference　のいずれかにより、非常に精緻な理由の定義を参照することもできる。
+ Procedure.reasonCodeは要約コードの場合もあれば、Procedure.reasonReferenceを使用して、Condition | Observation | Procedure | DiagnosticReport | DocumentReference のいずれかにより、非常に精緻な理由の定義を参照することもできる。
 もしプロシージャの異なる理由を説明しているのであれば、Procedure.reasonCodeとProcedure.reasonReferenceの両方を使用できる。</t>
   </si>
   <si>
@@ -1316,7 +1270,7 @@
 </t>
   </si>
   <si>
-    <t>The justification that the procedure was performed　プロシジャーが実施された正当性</t>
+    <t>The justification that the procedure was performed プロシジャーが実施された正当性</t>
   </si>
   <si>
     <t>なぜそのようなPlocedureを行ったのか、その正当性を示す。</t>
@@ -1337,14 +1291,14 @@
     <t>Procedure.bodySite</t>
   </si>
   <si>
-    <t>Target body sites　対象の人体部位</t>
+    <t>Target body sites 対象の人体部位</t>
   </si>
   <si>
     <t>詳細かつ構造化された解剖学的な位置情報。複数の場所を指定することができる。例えば、1つの病変に対して複数のパンチングバイオプシーを行うことができる。</t>
   </si>
   <si>
     <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [procedure-targetbodystructure](extension-procedure-targetbodystructure.html).
-ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張extension　[procedure-targetbodystructure]（extension-procedure-targetbodystructure.html）を使用する。</t>
+ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張extension [procedure-targetbodystructure]（extension-procedure-targetbodystructure.html）を使用する。</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureBodySite_VS</t>
@@ -1359,7 +1313,7 @@
     <t>Procedure.outcome</t>
   </si>
   <si>
-    <t>The result of procedure　プロシジャーの結果</t>
+    <t>The result of procedure プロシジャーの結果</t>
   </si>
   <si>
     <t>The outcome of the procedure - did it resolve the reasons for the procedure being performed?
@@ -1370,10 +1324,7 @@
 結果に叙述的記述トのみが含まれている場合は、CodeableConcept.textを使用してその情報を格納できる。</t>
   </si>
   <si>
-    <t>An outcome of a procedure - whether it was resolved or otherwise.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-outcome</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureOutcomeCodes_VS</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=OUT].target.text</t>
@@ -1386,7 +1337,7 @@
 </t>
   </si>
   <si>
-    <t>Any report resulting from the procedure　プロシジャーからのなんらかの結果報告</t>
+    <t>Any report resulting from the procedure プロシジャーからのなんらかの結果報告</t>
   </si>
   <si>
     <t>This could be a histology result, pathology report, surgical report, etc.
@@ -1404,7 +1355,7 @@
     <t>Procedure.complication</t>
   </si>
   <si>
-    <t>Complication following the procedure　プロシジャーに起こった合併症</t>
+    <t>Complication following the procedure プロシジャーに起こった合併症</t>
   </si>
   <si>
     <t>Any complications that occurred during the procedure, or in the immediate post-performance period. These are generally tracked separately from the notes, which will typically describe the procedure itself rather than any 'post procedure' issues.
@@ -1428,7 +1379,7 @@
 </t>
   </si>
   <si>
-    <t>A condition that is a result of the procedure　プロシジャーの結果であるような患者状態</t>
+    <t>A condition that is a result of the procedure プロシジャーの結果であるような患者状態</t>
   </si>
   <si>
     <t>Any complications that occurred during the procedure, or in the immediate post-performance period.
@@ -1442,7 +1393,7 @@
     <t>Procedure.followUp</t>
   </si>
   <si>
-    <t>Instructions for follow up　フォローアップの指示</t>
+    <t>Instructions for follow up フォローアップの指示</t>
   </si>
   <si>
     <t>If the procedure required specific follow up - e.g. removal of sutures. The follow up may be represented as a simple note or could potentially be more complex, in which case the CarePlan resource can be used.
@@ -1466,7 +1417,7 @@
 </t>
   </si>
   <si>
-    <t>Additional information about the procedure　プロシジャーの関する追加情報</t>
+    <t>Additional information about the procedure プロシジャーの関する追加情報</t>
   </si>
   <si>
     <t>Any other notes and comments about the procedure.
@@ -1490,7 +1441,7 @@
     <t>Procedure.focalDevice</t>
   </si>
   <si>
-    <t>Manipulated, implanted, or removed device　操作、埋め込み、または削除されたデバイス</t>
+    <t>Manipulated, implanted, or removed device 操作、埋め込み、または削除されたデバイス</t>
   </si>
   <si>
     <t>A device that is implanted, removed or otherwise manipulated (calibration, battery replacement, fitting a prosthesis, attaching a wound-vac, etc.) as a focal portion of the Procedure.
@@ -1547,7 +1498,7 @@
 </t>
   </si>
   <si>
-    <t>Items used during procedure　プロシジャー中に使用されるアイテム</t>
+    <t>Items used during procedure プロシジャー中に使用されるアイテム</t>
   </si>
   <si>
     <t>Identifies medications, devices and any other substance used as part of the procedure.
@@ -1568,7 +1519,7 @@
     <t>Procedure.usedCode</t>
   </si>
   <si>
-    <t>Coded items used during the procedure　プロシジャー中に使用したアイテムのコード</t>
+    <t>Coded items used during the procedure プロシジャー中に使用したアイテムのコード</t>
   </si>
   <si>
     <t>Identifies coded items that were used as part of the procedure.
@@ -1889,7 +1840,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM97"/>
+  <dimension ref="A1:AM93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1921,7 +1872,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="73.0546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="42.5234375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="70.4296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
@@ -3840,7 +3791,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>85</v>
@@ -3863,9 +3814,7 @@
       <c r="L18" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>202</v>
-      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>76</v>
@@ -3892,11 +3841,9 @@
       <c r="W18" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="X18" t="s" s="2">
-        <v>203</v>
-      </c>
+      <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>76</v>
@@ -3932,10 +3879,10 @@
         <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
@@ -3943,11 +3890,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3963,19 +3910,23 @@
         <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3999,13 +3950,11 @@
         <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="X19" s="2"/>
       <c r="Y19" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>76</v>
@@ -4023,7 +3972,7 @@
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4035,35 +3984,35 @@
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>76</v>
@@ -4075,17 +4024,15 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>132</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>76</v>
@@ -4122,37 +4069,37 @@
         <v>76</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -4163,11 +4110,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4183,23 +4130,21 @@
         <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>219</v>
+        <v>131</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>220</v>
+        <v>132</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>76</v>
       </c>
@@ -4235,19 +4180,19 @@
         <v>76</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4259,19 +4204,19 @@
         <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>226</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
@@ -4287,7 +4232,7 @@
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>76</v>
@@ -4299,19 +4244,19 @@
         <v>86</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>228</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
@@ -4348,25 +4293,23 @@
         <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>76</v>
@@ -4378,26 +4321,28 @@
         <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="C23" t="s" s="2">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>85</v>
@@ -4412,19 +4357,19 @@
         <v>86</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
@@ -4449,11 +4394,11 @@
         <v>76</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" t="s" s="2">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>76</v>
@@ -4471,13 +4416,13 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>76</v>
@@ -4486,21 +4431,21 @@
         <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>242</v>
+        <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>244</v>
+        <v>76</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4526,10 +4471,10 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4580,7 +4525,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4598,7 +4543,7 @@
         <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -4609,7 +4554,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4638,7 +4583,7 @@
         <v>132</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>134</v>
@@ -4679,19 +4624,19 @@
         <v>76</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4709,7 +4654,7 @@
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4720,7 +4665,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4728,10 +4673,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>76</v>
@@ -4743,26 +4688,26 @@
         <v>86</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>219</v>
+        <v>99</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>76</v>
@@ -4792,23 +4737,25 @@
         <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
@@ -4820,22 +4767,20 @@
         <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>226</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4856,20 +4801,18 @@
         <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>219</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4893,11 +4836,13 @@
         <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="X27" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y27" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>76</v>
@@ -4915,13 +4860,13 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>76</v>
@@ -4933,18 +4878,18 @@
         <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>226</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4964,19 +4909,21 @@
         <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="N28" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>76</v>
       </c>
@@ -5024,7 +4971,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5036,35 +4983,35 @@
         <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>76</v>
@@ -5073,21 +5020,21 @@
         <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>76</v>
       </c>
@@ -5123,48 +5070,48 @@
         <v>76</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5172,7 +5119,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>85</v>
@@ -5187,26 +5134,26 @@
         <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>99</v>
+        <v>271</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>261</v>
+        <v>76</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>76</v>
@@ -5248,7 +5195,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5266,20 +5213,22 @@
         <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="C31" t="s" s="2">
         <v>76</v>
       </c>
@@ -5300,18 +5249,20 @@
         <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>228</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>76</v>
       </c>
@@ -5335,13 +5286,11 @@
         <v>76</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>76</v>
@@ -5359,13 +5308,13 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>76</v>
@@ -5377,18 +5326,18 @@
         <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>271</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5408,21 +5357,19 @@
         <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>274</v>
+        <v>218</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" t="s" s="2">
-        <v>275</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5470,7 +5417,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>276</v>
+        <v>219</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5482,35 +5429,35 @@
         <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>76</v>
@@ -5519,21 +5466,21 @@
         <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>280</v>
+        <v>132</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5569,48 +5516,48 @@
         <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>284</v>
+        <v>220</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>285</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5618,7 +5565,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>85</v>
@@ -5633,26 +5580,26 @@
         <v>86</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>287</v>
+        <v>99</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>76</v>
+        <v>281</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>76</v>
@@ -5694,7 +5641,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5712,22 +5659,20 @@
         <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>294</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5748,20 +5693,18 @@
         <v>86</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>219</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5785,11 +5728,13 @@
         <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="X35" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y35" t="s" s="2">
-        <v>296</v>
+        <v>76</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>76</v>
@@ -5807,13 +5752,13 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>76</v>
@@ -5825,18 +5770,18 @@
         <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>226</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5856,19 +5801,21 @@
         <v>76</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5916,7 +5863,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5928,35 +5875,35 @@
         <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>76</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>76</v>
@@ -5965,21 +5912,21 @@
         <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
       </c>
@@ -6015,48 +5962,48 @@
         <v>76</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6064,7 +6011,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>85</v>
@@ -6079,26 +6026,26 @@
         <v>86</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>99</v>
+        <v>271</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>297</v>
+        <v>76</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>76</v>
@@ -6140,7 +6087,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6158,20 +6105,22 @@
         <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B39" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="C39" t="s" s="2">
         <v>76</v>
       </c>
@@ -6192,18 +6141,20 @@
         <v>86</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>87</v>
+        <v>228</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>76</v>
       </c>
@@ -6227,13 +6178,11 @@
         <v>76</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>76</v>
+        <v>283</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>76</v>
@@ -6251,13 +6200,13 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>76</v>
@@ -6269,18 +6218,18 @@
         <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>271</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6300,21 +6249,19 @@
         <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>274</v>
+        <v>218</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>275</v>
-      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>76</v>
       </c>
@@ -6362,7 +6309,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>276</v>
+        <v>219</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6374,35 +6321,35 @@
         <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>76</v>
@@ -6411,21 +6358,21 @@
         <v>76</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>280</v>
+        <v>132</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>76</v>
       </c>
@@ -6461,48 +6408,48 @@
         <v>76</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>284</v>
+        <v>220</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>285</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6510,7 +6457,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>85</v>
@@ -6525,26 +6472,26 @@
         <v>86</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>287</v>
+        <v>99</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>76</v>
+        <v>284</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>76</v>
@@ -6586,7 +6533,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6604,22 +6551,20 @@
         <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>294</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>76</v>
       </c>
@@ -6640,20 +6585,18 @@
         <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>219</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>76</v>
       </c>
@@ -6677,11 +6620,13 @@
         <v>76</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>76</v>
@@ -6699,13 +6644,13 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>76</v>
@@ -6717,18 +6662,18 @@
         <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>226</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6748,19 +6693,21 @@
         <v>76</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+      <c r="N44" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6808,7 +6755,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6820,35 +6767,35 @@
         <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>76</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>76</v>
@@ -6857,21 +6804,21 @@
         <v>76</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>76</v>
       </c>
@@ -6907,48 +6854,48 @@
         <v>76</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6956,7 +6903,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>85</v>
@@ -6971,26 +6918,26 @@
         <v>86</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>99</v>
+        <v>271</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>300</v>
+        <v>76</v>
       </c>
       <c r="R46" t="s" s="2">
         <v>76</v>
@@ -7032,7 +6979,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7050,20 +6997,22 @@
         <v>76</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B47" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="C47" t="s" s="2">
         <v>76</v>
       </c>
@@ -7084,18 +7033,20 @@
         <v>86</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>228</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>76</v>
       </c>
@@ -7119,13 +7070,11 @@
         <v>76</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="X47" s="2"/>
       <c r="Y47" t="s" s="2">
-        <v>76</v>
+        <v>286</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>76</v>
@@ -7143,13 +7092,13 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>76</v>
@@ -7161,18 +7110,18 @@
         <v>76</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>271</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7192,21 +7141,19 @@
         <v>76</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>274</v>
+        <v>218</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" t="s" s="2">
-        <v>275</v>
-      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>76</v>
       </c>
@@ -7254,7 +7201,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>276</v>
+        <v>219</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7266,35 +7213,35 @@
         <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>76</v>
@@ -7303,21 +7250,21 @@
         <v>76</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>280</v>
+        <v>132</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>76</v>
       </c>
@@ -7353,48 +7300,48 @@
         <v>76</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>284</v>
+        <v>220</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>285</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7402,7 +7349,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>85</v>
@@ -7417,26 +7364,26 @@
         <v>86</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>287</v>
+        <v>99</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>76</v>
@@ -7478,7 +7425,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7496,22 +7443,20 @@
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>294</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
         <v>76</v>
       </c>
@@ -7532,20 +7477,18 @@
         <v>86</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>219</v>
+        <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>76</v>
       </c>
@@ -7569,11 +7512,13 @@
         <v>76</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="X51" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y51" t="s" s="2">
-        <v>302</v>
+        <v>76</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>76</v>
@@ -7591,13 +7536,13 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>76</v>
@@ -7609,18 +7554,18 @@
         <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>226</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7640,19 +7585,21 @@
         <v>76</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>76</v>
       </c>
@@ -7700,7 +7647,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7712,35 +7659,35 @@
         <v>76</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>76</v>
+        <v>262</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>76</v>
@@ -7749,21 +7696,21 @@
         <v>76</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>76</v>
       </c>
@@ -7799,48 +7746,48 @@
         <v>76</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7848,7 +7795,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>85</v>
@@ -7863,26 +7810,26 @@
         <v>86</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>99</v>
+        <v>271</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>303</v>
+        <v>76</v>
       </c>
       <c r="R54" t="s" s="2">
         <v>76</v>
@@ -7924,7 +7871,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7942,20 +7889,22 @@
         <v>76</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B55" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="C55" t="s" s="2">
         <v>76</v>
       </c>
@@ -7976,18 +7925,20 @@
         <v>86</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>87</v>
+        <v>228</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>76</v>
       </c>
@@ -8011,13 +7962,11 @@
         <v>76</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>76</v>
@@ -8035,13 +7984,13 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>76</v>
@@ -8053,18 +8002,18 @@
         <v>76</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>271</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8084,21 +8033,19 @@
         <v>76</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>274</v>
+        <v>218</v>
       </c>
       <c r="M56" s="2"/>
-      <c r="N56" t="s" s="2">
-        <v>275</v>
-      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>76</v>
       </c>
@@ -8146,7 +8093,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>276</v>
+        <v>219</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8158,35 +8105,35 @@
         <v>76</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>76</v>
@@ -8195,21 +8142,21 @@
         <v>76</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>280</v>
+        <v>132</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>76</v>
       </c>
@@ -8245,48 +8192,48 @@
         <v>76</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>284</v>
+        <v>220</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>285</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8294,7 +8241,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>85</v>
@@ -8309,26 +8256,26 @@
         <v>86</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>287</v>
+        <v>99</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>76</v>
+        <v>290</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>76</v>
@@ -8370,7 +8317,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8388,22 +8335,20 @@
         <v>76</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>294</v>
+        <v>248</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
         <v>76</v>
       </c>
@@ -8424,20 +8369,18 @@
         <v>86</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>219</v>
+        <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>76</v>
       </c>
@@ -8461,11 +8404,13 @@
         <v>76</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="X59" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y59" t="s" s="2">
-        <v>305</v>
+        <v>76</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>76</v>
@@ -8483,13 +8428,13 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>76</v>
@@ -8501,18 +8446,18 @@
         <v>76</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>226</v>
+        <v>255</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8532,19 +8477,21 @@
         <v>76</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
       </c>
@@ -8592,7 +8539,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8604,35 +8551,35 @@
         <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>76</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>76</v>
@@ -8641,21 +8588,21 @@
         <v>76</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>76</v>
       </c>
@@ -8691,48 +8638,48 @@
         <v>76</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8740,7 +8687,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>85</v>
@@ -8755,26 +8702,26 @@
         <v>86</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>99</v>
+        <v>271</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>306</v>
+        <v>76</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>76</v>
@@ -8816,7 +8763,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8834,18 +8781,18 @@
         <v>76</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8871,15 +8818,17 @@
         <v>87</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>76</v>
       </c>
@@ -8927,7 +8876,7 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -8945,26 +8894,26 @@
         <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>271</v>
+        <v>298</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>85</v>
@@ -8979,18 +8928,18 @@
         <v>86</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>105</v>
+        <v>301</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>76</v>
       </c>
@@ -9038,10 +8987,10 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>85</v>
@@ -9053,21 +9002,21 @@
         <v>97</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>278</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9090,18 +9039,18 @@
         <v>86</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>87</v>
+        <v>310</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>76</v>
       </c>
@@ -9149,7 +9098,7 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9164,21 +9113,21 @@
         <v>97</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>76</v>
+        <v>314</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>76</v>
+        <v>316</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>285</v>
+        <v>317</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9201,20 +9150,18 @@
         <v>86</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>76</v>
       </c>
@@ -9262,7 +9209,7 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9277,21 +9224,21 @@
         <v>97</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>76</v>
+        <v>325</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>294</v>
+        <v>326</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9314,20 +9261,18 @@
         <v>86</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>87</v>
+        <v>328</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>76</v>
       </c>
@@ -9375,7 +9320,7 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>232</v>
+        <v>327</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9393,26 +9338,26 @@
         <v>76</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>233</v>
+        <v>332</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>76</v>
+        <v>333</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>234</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>313</v>
+        <v>76</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>85</v>
@@ -9427,16 +9372,16 @@
         <v>86</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9486,10 +9431,10 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>85</v>
@@ -9501,21 +9446,21 @@
         <v>97</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>318</v>
+        <v>76</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>321</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9526,7 +9471,7 @@
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>76</v>
@@ -9538,17 +9483,15 @@
         <v>86</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>76</v>
@@ -9597,13 +9540,13 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>76</v>
@@ -9612,21 +9555,21 @@
         <v>97</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>329</v>
+        <v>76</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>330</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9646,20 +9589,18 @@
         <v>76</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>332</v>
+        <v>87</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>333</v>
+        <v>217</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>76</v>
@@ -9708,7 +9649,7 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>331</v>
+        <v>219</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -9720,35 +9661,35 @@
         <v>76</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>336</v>
+        <v>76</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>337</v>
+        <v>220</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>338</v>
+        <v>76</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>339</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>76</v>
@@ -9757,19 +9698,19 @@
         <v>76</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>342</v>
+        <v>132</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>343</v>
+        <v>222</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9819,28 +9760,28 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>340</v>
+        <v>226</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>345</v>
+        <v>220</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>346</v>
+        <v>76</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>76</v>
@@ -9852,37 +9793,39 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>76</v>
+        <v>348</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>76</v>
       </c>
@@ -9930,28 +9873,28 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>350</v>
+        <v>128</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>351</v>
+        <v>76</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>76</v>
@@ -9970,7 +9913,7 @@
         <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>76</v>
@@ -9982,16 +9925,20 @@
         <v>86</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+      <c r="N73" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>76</v>
       </c>
@@ -10015,13 +9962,11 @@
         <v>76</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="X73" s="2"/>
       <c r="Y73" t="s" s="2">
-        <v>76</v>
+        <v>357</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>76</v>
@@ -10045,7 +9990,7 @@
         <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>76</v>
@@ -10054,21 +9999,21 @@
         <v>97</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>76</v>
+        <v>360</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10076,7 +10021,7 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>85</v>
@@ -10088,19 +10033,23 @@
         <v>76</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>87</v>
+        <v>362</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>208</v>
+        <v>363</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>76</v>
       </c>
@@ -10148,10 +10097,10 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>210</v>
+        <v>361</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>85</v>
@@ -10160,35 +10109,35 @@
         <v>76</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>76</v>
+        <v>367</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>211</v>
+        <v>368</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>76</v>
+        <v>369</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>76</v>
+        <v>370</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>76</v>
@@ -10200,18 +10149,20 @@
         <v>76</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>131</v>
+        <v>372</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>132</v>
+        <v>373</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>213</v>
+        <v>374</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>76</v>
       </c>
@@ -10259,25 +10210,25 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>217</v>
+        <v>371</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>211</v>
+        <v>377</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>76</v>
@@ -10288,42 +10239,42 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>361</v>
+        <v>76</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>131</v>
+        <v>379</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>134</v>
+        <v>331</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>140</v>
+        <v>382</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>76</v>
@@ -10372,28 +10323,28 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>128</v>
+        <v>383</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>76</v>
+        <v>384</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>76</v>
@@ -10401,7 +10352,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10412,7 +10363,7 @@
         <v>77</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>76</v>
@@ -10427,17 +10378,15 @@
         <v>191</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>76</v>
       </c>
@@ -10465,7 +10414,7 @@
       </c>
       <c r="X77" s="2"/>
       <c r="Y77" t="s" s="2">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>76</v>
@@ -10483,13 +10432,13 @@
         <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>76</v>
@@ -10498,21 +10447,21 @@
         <v>97</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>76</v>
+        <v>392</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>373</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10520,10 +10469,10 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>76</v>
@@ -10535,20 +10484,18 @@
         <v>86</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>76</v>
       </c>
@@ -10596,13 +10543,13 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>76</v>
@@ -10611,21 +10558,21 @@
         <v>97</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>383</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10636,7 +10583,7 @@
         <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>76</v>
@@ -10645,23 +10592,21 @@
         <v>76</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>385</v>
+        <v>191</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>76</v>
       </c>
@@ -10685,13 +10630,11 @@
         <v>76</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="X79" s="2"/>
       <c r="Y79" t="s" s="2">
-        <v>76</v>
+        <v>403</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>76</v>
@@ -10709,13 +10652,13 @@
         <v>76</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>76</v>
@@ -10727,18 +10670,18 @@
         <v>76</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>76</v>
+        <v>405</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10761,20 +10704,18 @@
         <v>86</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>392</v>
+        <v>191</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>76</v>
       </c>
@@ -10798,13 +10739,11 @@
         <v>76</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="X80" s="2"/>
       <c r="Y80" t="s" s="2">
-        <v>76</v>
+        <v>410</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>76</v>
@@ -10822,7 +10761,7 @@
         <v>76</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -10840,10 +10779,10 @@
         <v>76</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>397</v>
+        <v>76</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>76</v>
@@ -10851,7 +10790,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10871,19 +10810,19 @@
         <v>76</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>191</v>
+        <v>413</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -10909,11 +10848,13 @@
         <v>76</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="X81" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y81" t="s" s="2">
-        <v>402</v>
+        <v>76</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>76</v>
@@ -10931,7 +10872,7 @@
         <v>76</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -10946,13 +10887,13 @@
         <v>97</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>403</v>
+        <v>76</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>405</v>
+        <v>76</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>76</v>
@@ -10960,7 +10901,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10980,19 +10921,19 @@
         <v>76</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>407</v>
+        <v>191</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11018,13 +10959,11 @@
         <v>76</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="X82" s="2"/>
       <c r="Y82" t="s" s="2">
-        <v>76</v>
+        <v>422</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>76</v>
@@ -11042,7 +10981,7 @@
         <v>76</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11057,13 +10996,13 @@
         <v>97</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>411</v>
+        <v>76</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>405</v>
+        <v>76</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>76</v>
@@ -11071,7 +11010,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11091,21 +11030,23 @@
         <v>76</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>191</v>
+        <v>425</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>76</v>
       </c>
@@ -11129,11 +11070,13 @@
         <v>76</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="X83" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y83" t="s" s="2">
-        <v>416</v>
+        <v>76</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>76</v>
@@ -11151,7 +11094,7 @@
         <v>76</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11169,18 +11112,18 @@
         <v>76</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>418</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11191,7 +11134,7 @@
         <v>77</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>76</v>
@@ -11200,19 +11143,19 @@
         <v>76</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J84" t="s" s="2">
         <v>191</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11240,11 +11183,9 @@
       <c r="W84" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="X84" t="s" s="2">
-        <v>423</v>
-      </c>
+      <c r="X84" s="2"/>
       <c r="Y84" t="s" s="2">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>76</v>
@@ -11262,13 +11203,13 @@
         <v>76</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>76</v>
@@ -11280,7 +11221,7 @@
         <v>76</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>76</v>
@@ -11291,7 +11232,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11314,16 +11255,16 @@
         <v>76</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11373,7 +11314,7 @@
         <v>76</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -11388,21 +11329,21 @@
         <v>97</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>76</v>
+        <v>440</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>76</v>
+        <v>442</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11425,17 +11366,15 @@
         <v>76</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>191</v>
+        <v>340</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>76</v>
@@ -11460,11 +11399,13 @@
         <v>76</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="X86" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y86" t="s" s="2">
-        <v>436</v>
+        <v>76</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>76</v>
@@ -11482,7 +11423,7 @@
         <v>76</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -11500,7 +11441,7 @@
         <v>76</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>76</v>
@@ -11511,7 +11452,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11522,7 +11463,7 @@
         <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>76</v>
@@ -11534,20 +11475,16 @@
         <v>76</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>439</v>
+        <v>87</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>440</v>
+        <v>217</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>76</v>
       </c>
@@ -11595,25 +11532,25 @@
         <v>76</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>438</v>
+        <v>219</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>437</v>
+        <v>220</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>76</v>
@@ -11624,11 +11561,11 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11647,16 +11584,16 @@
         <v>76</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>191</v>
+        <v>131</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>444</v>
+        <v>132</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>445</v>
+        <v>222</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>446</v>
+        <v>134</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -11682,11 +11619,13 @@
         <v>76</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="X88" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y88" t="s" s="2">
-        <v>447</v>
+        <v>76</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>76</v>
@@ -11704,7 +11643,7 @@
         <v>76</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>443</v>
+        <v>226</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -11716,13 +11655,13 @@
         <v>76</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>448</v>
+        <v>220</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>76</v>
@@ -11737,7 +11676,7 @@
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>76</v>
+        <v>348</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11750,24 +11689,26 @@
         <v>76</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>450</v>
+        <v>131</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>451</v>
+        <v>349</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>452</v>
+        <v>350</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O89" t="s" s="2">
         <v>76</v>
       </c>
@@ -11815,7 +11756,7 @@
         <v>76</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>449</v>
+        <v>351</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -11827,24 +11768,24 @@
         <v>76</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>454</v>
+        <v>76</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>455</v>
+        <v>128</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>456</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11855,7 +11796,7 @@
         <v>77</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>76</v>
@@ -11867,13 +11808,13 @@
         <v>76</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>353</v>
+        <v>191</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11900,13 +11841,11 @@
         <v>76</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>76</v>
+        <v>453</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>76</v>
@@ -11924,13 +11863,13 @@
         <v>76</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>76</v>
@@ -11942,7 +11881,7 @@
         <v>76</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>76</v>
@@ -11953,7 +11892,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11961,7 +11900,7 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>85</v>
@@ -11976,13 +11915,13 @@
         <v>76</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>87</v>
+        <v>456</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>208</v>
+        <v>457</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>209</v>
+        <v>458</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12033,10 +11972,10 @@
         <v>76</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>210</v>
+        <v>455</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>85</v>
@@ -12045,13 +11984,13 @@
         <v>76</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>211</v>
+        <v>459</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>76</v>
@@ -12062,11 +12001,11 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12085,18 +12024,20 @@
         <v>76</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>131</v>
+        <v>461</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>132</v>
+        <v>462</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>213</v>
+        <v>463</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="O92" t="s" s="2">
         <v>76</v>
       </c>
@@ -12144,7 +12085,7 @@
         <v>76</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>217</v>
+        <v>460</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12156,13 +12097,13 @@
         <v>76</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>211</v>
+        <v>466</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>76</v>
@@ -12173,11 +12114,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>361</v>
+        <v>76</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12190,26 +12131,24 @@
         <v>76</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>362</v>
+        <v>468</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>363</v>
+        <v>469</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>76</v>
       </c>
@@ -12233,13 +12172,11 @@
         <v>76</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="X93" s="2"/>
       <c r="Y93" t="s" s="2">
-        <v>76</v>
+        <v>471</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>76</v>
@@ -12257,7 +12194,7 @@
         <v>76</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>364</v>
+        <v>467</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -12269,456 +12206,18 @@
         <v>76</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>128</v>
+        <v>472</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="X94" s="2"/>
-      <c r="Y94" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="X97" s="2"/>
-      <c r="Y97" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM97" t="s" s="2">
         <v>76</v>
       </c>
     </row>
